--- a/input/maf2020techdata.xlsx
+++ b/input/maf2020techdata.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="147">
   <si>
     <t xml:space="preserve">Fuel</t>
   </si>
@@ -137,13 +137,10 @@
     <t xml:space="preserve">storage_rel_capa</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower reservoir turbine pe</t>
+    <t xml:space="preserve">Nuclear</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear</t>
   </si>
   <si>
     <t xml:space="preserve">fuel</t>
@@ -725,10 +722,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,10 +843,10 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.33</v>
@@ -905,13 +902,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0.33</v>
@@ -967,16 +964,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0.35</v>
@@ -1032,16 +1029,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.4</v>
@@ -1097,16 +1094,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.46</v>
@@ -1162,16 +1159,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.38</v>
@@ -1227,13 +1224,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.46</v>
@@ -1289,13 +1286,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0.35</v>
@@ -1351,13 +1348,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0.4</v>
@@ -1413,16 +1410,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.35</v>
@@ -1478,16 +1475,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.4</v>
@@ -1543,16 +1540,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0.46</v>
@@ -1608,16 +1605,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.38</v>
@@ -1673,13 +1670,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.35</v>
@@ -1735,13 +1732,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0.4</v>
@@ -1797,16 +1794,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>0.36</v>
@@ -1862,16 +1859,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>0.41</v>
@@ -1927,16 +1924,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>0.4</v>
@@ -1992,16 +1989,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>0.48</v>
@@ -2057,16 +2054,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>0.56</v>
@@ -2122,16 +2119,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>0.58</v>
@@ -2187,16 +2184,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>0.6</v>
@@ -2252,16 +2249,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>0.51</v>
@@ -2317,16 +2314,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>0.35</v>
@@ -2382,16 +2379,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>0.42</v>
@@ -2447,16 +2444,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>0.35</v>
@@ -2512,16 +2509,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>0.35</v>
@@ -2577,16 +2574,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>0.4</v>
@@ -2642,16 +2639,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>0.29</v>
@@ -2707,16 +2704,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>0.39</v>
@@ -2772,13 +2769,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>0.39</v>
@@ -2834,13 +2831,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>0.9</v>
@@ -2899,13 +2896,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>0.9</v>
@@ -2961,13 +2958,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>0.9</v>
@@ -3023,13 +3020,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>0.9</v>
@@ -3085,13 +3082,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>0.89</v>
@@ -3150,13 +3147,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>0.89</v>
@@ -3215,13 +3212,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>0.89</v>
@@ -3280,13 +3277,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>0.89</v>
@@ -3345,10 +3342,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3408,10 +3405,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3471,10 +3468,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3534,13 +3531,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -3599,18 +3596,18 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I45" s="5" t="n">
         <v>1</v>
@@ -3666,13 +3663,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3731,10 +3728,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>2.8</v>
@@ -3790,10 +3787,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>0.98</v>
@@ -3849,13 +3846,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I49" s="5" t="n">
         <v>0.95</v>
@@ -3914,13 +3911,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I50" s="5" t="n">
         <v>0.95</v>
@@ -3976,13 +3973,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="I51" s="5" t="n">
         <v>1</v>
@@ -4038,13 +4035,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.8</v>
@@ -4100,13 +4097,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>0.75</v>
@@ -4162,13 +4159,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>0.8</v>
@@ -4224,13 +4221,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>0.35</v>
@@ -4287,13 +4284,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>0.1</v>
@@ -4352,13 +4349,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>0.1</v>
@@ -4417,13 +4414,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I58" s="5" t="n">
         <v>1</v>
@@ -4479,13 +4476,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I59" s="5" t="n">
         <v>1</v>
@@ -4541,19 +4538,19 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
@@ -4612,16 +4609,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="I61" s="5" t="n">
         <v>1</v>
@@ -4677,16 +4674,16 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I62" s="5" t="n">
         <v>1</v>
@@ -4742,16 +4739,16 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="H63" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I63" s="5" t="n">
         <v>1</v>
@@ -4810,13 +4807,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="n">
@@ -4876,16 +4873,16 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>1</v>
@@ -4941,18 +4938,18 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I66" s="5" t="n">
         <v>1</v>
@@ -5008,17 +5005,19 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="H67" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="I67" s="5" t="n">
         <v>1</v>
       </c>
@@ -5073,17 +5072,19 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="I68" s="5" t="n">
         <v>1</v>
       </c>
@@ -5138,13 +5139,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>0.71</v>
@@ -5200,13 +5201,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>0.75</v>
@@ -5262,13 +5263,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>0.79</v>
@@ -5321,9 +5322,6 @@
       <c r="Y71" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5345,7 +5343,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5359,27 +5357,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -5387,10 +5385,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -5398,10 +5396,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -5409,10 +5407,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -5420,21 +5418,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.15</v>
@@ -5442,21 +5440,21 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.3</v>
@@ -5464,10 +5462,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.4</v>
@@ -5475,10 +5473,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.3</v>

--- a/input/maf2020techdata.xlsx
+++ b/input/maf2020techdata.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="151">
   <si>
     <t xml:space="preserve">Fuel</t>
   </si>
@@ -137,6 +137,9 @@
     <t xml:space="preserve">storage_rel_capa</t>
   </si>
   <si>
+    <t xml:space="preserve">useTimeseriesAvailability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuclear</t>
   </si>
   <si>
@@ -468,6 +471,15 @@
   </si>
   <si>
     <t xml:space="preserve">Electrolysis tier 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV smart discharger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV smart charger</t>
   </si>
   <si>
     <t xml:space="preserve">Aggregate_generator</t>
@@ -722,10 +734,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,6 +761,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="1" width="9.14"/>
   </cols>
   <sheetData>
@@ -834,19 +847,22 @@
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.33</v>
@@ -902,13 +918,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0.33</v>
@@ -964,16 +980,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0.35</v>
@@ -1029,16 +1045,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>0.4</v>
@@ -1094,16 +1110,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>0.46</v>
@@ -1159,16 +1175,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>0.38</v>
@@ -1224,13 +1240,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>0.46</v>
@@ -1286,13 +1302,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0.35</v>
@@ -1348,13 +1364,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0.4</v>
@@ -1410,16 +1426,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.35</v>
@@ -1475,16 +1491,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.4</v>
@@ -1540,16 +1556,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>0.46</v>
@@ -1605,16 +1621,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.38</v>
@@ -1670,13 +1686,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>0.35</v>
@@ -1732,13 +1748,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>0.4</v>
@@ -1794,16 +1810,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>0.36</v>
@@ -1859,16 +1875,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>0.41</v>
@@ -1924,16 +1940,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>0.4</v>
@@ -1989,16 +2005,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>0.48</v>
@@ -2054,16 +2070,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="n">
         <v>0.56</v>
@@ -2119,16 +2135,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1" t="n">
         <v>0.58</v>
@@ -2184,16 +2200,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I23" s="1" t="n">
         <v>0.6</v>
@@ -2249,16 +2265,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="1" t="n">
         <v>0.51</v>
@@ -2314,16 +2330,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>0.35</v>
@@ -2379,16 +2395,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>0.42</v>
@@ -2444,16 +2460,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1" t="n">
         <v>0.35</v>
@@ -2509,16 +2525,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>0.35</v>
@@ -2574,16 +2590,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>0.4</v>
@@ -2639,16 +2655,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30" s="1" t="n">
         <v>0.29</v>
@@ -2704,16 +2720,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>0.39</v>
@@ -2769,13 +2785,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>0.39</v>
@@ -2831,13 +2847,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>0.9</v>
@@ -2896,13 +2912,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>0.9</v>
@@ -2958,13 +2974,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>0.9</v>
@@ -3020,13 +3036,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I36" s="1" t="n">
         <v>0.9</v>
@@ -3082,13 +3098,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>0.89</v>
@@ -3147,13 +3163,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I38" s="1" t="n">
         <v>0.89</v>
@@ -3212,13 +3228,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I39" s="1" t="n">
         <v>0.89</v>
@@ -3277,13 +3293,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I40" s="1" t="n">
         <v>0.89</v>
@@ -3342,10 +3358,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -3405,10 +3421,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -3468,10 +3484,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3531,13 +3547,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -3596,18 +3612,18 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I45" s="5" t="n">
         <v>1</v>
@@ -3663,13 +3679,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3728,10 +3744,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>2.8</v>
@@ -3787,10 +3803,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="I48" s="1" t="n">
         <v>0.98</v>
@@ -3846,13 +3862,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I49" s="5" t="n">
         <v>0.95</v>
@@ -3911,13 +3927,13 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I50" s="5" t="n">
         <v>0.95</v>
@@ -3973,13 +3989,13 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I51" s="5" t="n">
         <v>1</v>
@@ -4035,13 +4051,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.8</v>
@@ -4097,13 +4113,13 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I53" s="1" t="n">
         <v>0.75</v>
@@ -4159,13 +4175,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>0.8</v>
@@ -4221,13 +4237,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>0.35</v>
@@ -4284,13 +4300,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>0.1</v>
@@ -4349,13 +4365,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I57" s="1" t="n">
         <v>0.1</v>
@@ -4414,13 +4430,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I58" s="5" t="n">
         <v>1</v>
@@ -4476,13 +4492,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I59" s="5" t="n">
         <v>1</v>
@@ -4538,19 +4554,19 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I60" s="1" t="n">
         <v>1</v>
@@ -4609,16 +4625,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I61" s="5" t="n">
         <v>1</v>
@@ -4674,16 +4690,16 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="I62" s="5" t="n">
         <v>1</v>
@@ -4739,16 +4755,16 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I63" s="5" t="n">
         <v>1</v>
@@ -4807,13 +4823,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="n">
@@ -4873,16 +4889,16 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>1</v>
@@ -4938,18 +4954,18 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I66" s="5" t="n">
         <v>1</v>
@@ -5005,18 +5021,18 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I67" s="5" t="n">
         <v>1</v>
@@ -5072,18 +5088,18 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I68" s="5" t="n">
         <v>1</v>
@@ -5139,13 +5155,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I69" s="1" t="n">
         <v>0.71</v>
@@ -5201,13 +5217,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I70" s="1" t="n">
         <v>0.75</v>
@@ -5263,13 +5279,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I71" s="1" t="n">
         <v>0.79</v>
@@ -5321,6 +5337,136 @@
       </c>
       <c r="Y71" s="1" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I72" s="5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5357,27 +5503,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -5385,10 +5531,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -5396,10 +5542,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -5407,10 +5553,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -5418,10 +5564,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.7</v>
@@ -5429,10 +5575,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.15</v>
@@ -5440,10 +5586,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.15</v>
@@ -5451,10 +5597,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.3</v>
@@ -5462,10 +5608,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.4</v>
@@ -5473,10 +5619,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.3</v>

--- a/input/maf2020techdata.xlsx
+++ b/input/maf2020techdata.xlsx
@@ -736,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA72" activeCellId="0" sqref="AA72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -761,7 +761,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="1" width="9.14"/>
   </cols>
   <sheetData>
@@ -5343,8 +5343,8 @@
       <c r="C72" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>108</v>
+      <c r="D72" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>140</v>
@@ -5400,9 +5400,7 @@
       <c r="Y72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA72" s="1" t="n">
-        <v>1000</v>
-      </c>
+      <c r="AA72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1" t="s">
@@ -5465,7 +5463,7 @@
       <c r="Y73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB73" s="0" t="n">
+      <c r="AB73" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/input/maf2020techdata.xlsx
+++ b/input/maf2020techdata.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="techdata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="aggregates" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="techdata" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="aggregates" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Bottom" vbProcedure="false">OFFSET(#REF!,1,0,COUNT(#REF!),1)</definedName>
@@ -30,18 +30,16 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 p.u. / min.
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="158">
   <si>
     <t xml:space="preserve">Fuel</t>
   </si>
@@ -65,6 +63,9 @@
     <t xml:space="preserve">Generator_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
     <t xml:space="preserve">inputtype</t>
   </si>
   <si>
@@ -146,6 +147,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">biddingzone</t>
+  </si>
+  <si>
     <t xml:space="preserve">fuel</t>
   </si>
   <si>
@@ -480,6 +484,21 @@
   </si>
   <si>
     <t xml:space="preserve">EV smart charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat storage discharger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatsto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat storage charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heat</t>
   </si>
   <si>
     <t xml:space="preserve">Aggregate_generator</t>
@@ -516,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -552,6 +571,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -729,15 +753,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA72" activeCellId="0" sqref="AA72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,24 +875,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="1026" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -829,7 +959,7 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
@@ -850,288 +980,303 @@
       <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>12</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="n">
         <v>3.89</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="P2" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="Q2" s="4" t="n">
         <v>3.89</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="R2" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="S2" s="4" t="n">
         <v>3.89</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="T2" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="U2" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="V2" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>0.95</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>0.05</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y2" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z2" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>12</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>3.89</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="P3" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="Q3" s="4" t="n">
         <v>3.89</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="R3" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="S3" s="4" t="n">
         <v>3.89</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="T3" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="U3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="V3" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="W3" s="1" t="n">
         <v>0.8</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>0.05</v>
       </c>
       <c r="X3" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y3" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z3" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="J4" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="K4" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="L4" s="4" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>8</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>8</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="P4" s="4" t="n">
         <v>69.69</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="Q4" s="4" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="R4" s="4" t="n">
         <v>93.97</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="S4" s="4" t="n">
         <v>2.92</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="T4" s="4" t="n">
         <v>49.33</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="U4" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="V4" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="6" t="n">
+      <c r="J5" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="K5" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="L5" s="6" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>6</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>6</v>
       </c>
       <c r="N5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="P5" s="6" t="n">
         <v>50.12</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="Q5" s="6" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="R5" s="6" t="n">
         <v>81.44</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="S5" s="6" t="n">
         <v>2.92</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="T5" s="6" t="n">
         <v>42.29</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="X5" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>5</v>
@@ -1140,125 +1285,131 @@
         <v>5</v>
       </c>
       <c r="O6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>57.17</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="S6" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="T6" s="1" t="n">
         <v>30.54</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="n">
+      <c r="J7" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>9.4</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="L7" s="1" t="n">
         <v>6.6</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>7</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="N7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>50.12</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q7" s="1" t="n">
+      <c r="R7" s="1" t="n">
         <v>81.44</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="S7" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S7" s="1" t="n">
+      <c r="T7" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1" t="n">
+      <c r="J8" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="L8" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="M8" s="1" t="n">
         <v>5</v>
@@ -1267,2118 +1418,2217 @@
         <v>5</v>
       </c>
       <c r="O8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="Q8" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="R8" s="1" t="n">
         <v>57.17</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="S8" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S8" s="1" t="n">
+      <c r="T8" s="1" t="n">
         <v>30.54</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="U8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="J9" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="K9" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>8</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="N9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="P9" s="4" t="n">
         <v>69.69</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="Q9" s="4" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="R9" s="4" t="n">
         <v>93.97</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="S9" s="4" t="n">
         <v>2.92</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="T9" s="4" t="n">
         <v>49.33</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="U9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="V9" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="X9" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="6" t="n">
+      <c r="J10" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="K10" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="L10" s="6" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>6</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>6</v>
       </c>
       <c r="N10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="P10" s="6" t="n">
         <v>50.12</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="Q10" s="6" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="R10" s="6" t="n">
         <v>81.44</v>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="S10" s="6" t="n">
         <v>2.92</v>
       </c>
-      <c r="S10" s="6" t="n">
+      <c r="T10" s="6" t="n">
         <v>42.29</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="V10" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="X10" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="K11" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="L11" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>11</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>11</v>
       </c>
       <c r="N11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="P11" s="1" t="n">
         <v>69.69</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="Q11" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="R11" s="1" t="n">
         <v>93.97</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="S11" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="T11" s="1" t="n">
         <v>49.33</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="U11" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="K12" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="L12" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>9</v>
       </c>
       <c r="M12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="N12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="P12" s="1" t="n">
         <v>50.12</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="Q12" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="R12" s="1" t="n">
         <v>81.44</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="S12" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="T12" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="U12" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="V12" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="X12" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="K13" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="L13" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>8</v>
       </c>
       <c r="M13" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="P13" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="Q13" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="R13" s="1" t="n">
         <v>57.17</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="S13" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="T13" s="1" t="n">
         <v>30.54</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="U13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="V13" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="X13" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>0.38</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="K14" s="1" t="n">
         <v>10.1</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="L14" s="1" t="n">
         <v>6.6</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>10</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="P14" s="1" t="n">
         <v>50.12</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="Q14" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q14" s="1" t="n">
+      <c r="R14" s="1" t="n">
         <v>81.44</v>
       </c>
-      <c r="R14" s="1" t="n">
+      <c r="S14" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S14" s="1" t="n">
+      <c r="T14" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="T14" s="1" t="n">
+      <c r="U14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U14" s="1" t="n">
+      <c r="V14" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="K15" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="L15" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>11</v>
       </c>
       <c r="M15" s="1" t="n">
         <v>11</v>
       </c>
       <c r="N15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="P15" s="1" t="n">
         <v>69.69</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="Q15" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="R15" s="1" t="n">
         <v>93.97</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="S15" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="T15" s="1" t="n">
         <v>49.33</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="U15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="V15" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="K16" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="L16" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>9</v>
       </c>
       <c r="M16" s="1" t="n">
         <v>9</v>
       </c>
       <c r="N16" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O16" s="1" t="n">
+      <c r="P16" s="1" t="n">
         <v>50.12</v>
       </c>
-      <c r="P16" s="1" t="n">
+      <c r="Q16" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="R16" s="1" t="n">
         <v>81.44</v>
       </c>
-      <c r="R16" s="1" t="n">
+      <c r="S16" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S16" s="1" t="n">
+      <c r="T16" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="T16" s="1" t="n">
+      <c r="U16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U16" s="1" t="n">
+      <c r="V16" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>0.36</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="K17" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="L17" s="1" t="n">
         <v>1.1</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="M17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="N17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="P17" s="1" t="n">
         <v>68.13</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="Q17" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="R17" s="1" t="n">
         <v>69.69</v>
       </c>
-      <c r="R17" s="1" t="n">
+      <c r="S17" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S17" s="1" t="n">
+      <c r="T17" s="1" t="n">
         <v>32.89</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="U17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U17" s="1" t="n">
+      <c r="V17" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>0.2</v>
-      </c>
-      <c r="W17" s="1" t="n">
-        <v>0.15</v>
       </c>
       <c r="X17" s="1" t="n">
         <v>0.15</v>
       </c>
       <c r="Y17" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>0.41</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="K18" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="L18" s="1" t="n">
         <v>1.1</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>5</v>
       </c>
       <c r="M18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="N18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O18" s="1" t="n">
+      <c r="P18" s="1" t="n">
         <v>45.42</v>
       </c>
-      <c r="P18" s="1" t="n">
+      <c r="Q18" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q18" s="1" t="n">
+      <c r="R18" s="1" t="n">
         <v>58.73</v>
       </c>
-      <c r="R18" s="1" t="n">
+      <c r="S18" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S18" s="1" t="n">
+      <c r="T18" s="1" t="n">
         <v>28.19</v>
       </c>
-      <c r="T18" s="1" t="n">
+      <c r="U18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U18" s="1" t="n">
+      <c r="V18" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>0.2</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>0.15</v>
       </c>
       <c r="X18" s="1" t="n">
         <v>0.15</v>
       </c>
       <c r="Y18" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="K19" s="1" t="n">
+      <c r="L19" s="1" t="n">
         <v>1.6</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O19" s="1" t="n">
+      <c r="P19" s="1" t="n">
         <v>72.83</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="Q19" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q19" s="1" t="n">
+      <c r="R19" s="1" t="n">
         <v>79.09</v>
       </c>
-      <c r="R19" s="1" t="n">
+      <c r="S19" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S19" s="1" t="n">
+      <c r="T19" s="1" t="n">
         <v>43.85</v>
       </c>
-      <c r="T19" s="1" t="n">
+      <c r="U19" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U19" s="1" t="n">
+      <c r="V19" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V19" s="1" t="n">
+      <c r="W19" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W19" s="1" t="n">
+      <c r="X19" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X19" s="1" t="n">
+      <c r="Y19" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y19" s="1" t="n">
+      <c r="Z19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>0.48</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="K20" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="L20" s="1" t="n">
         <v>1.6</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O20" s="1" t="n">
+      <c r="P20" s="1" t="n">
         <v>43.07</v>
       </c>
-      <c r="P20" s="1" t="n">
+      <c r="Q20" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q20" s="1" t="n">
+      <c r="R20" s="1" t="n">
         <v>61.86</v>
       </c>
-      <c r="R20" s="1" t="n">
+      <c r="S20" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S20" s="1" t="n">
+      <c r="T20" s="1" t="n">
         <v>27.41</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="U20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U20" s="1" t="n">
+      <c r="V20" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V20" s="1" t="n">
+      <c r="W20" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W20" s="1" t="n">
+      <c r="X20" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="X20" s="1" t="n">
+      <c r="Y20" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y20" s="1" t="n">
+      <c r="Z20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>0.56</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="K21" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="L21" s="1" t="n">
         <v>1.6</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="M21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O21" s="1" t="n">
+      <c r="P21" s="1" t="n">
         <v>25.06</v>
       </c>
-      <c r="P21" s="1" t="n">
+      <c r="Q21" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q21" s="1" t="n">
+      <c r="R21" s="1" t="n">
         <v>36.02</v>
       </c>
-      <c r="R21" s="1" t="n">
+      <c r="S21" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S21" s="1" t="n">
+      <c r="T21" s="1" t="n">
         <v>21.93</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="U21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U21" s="1" t="n">
+      <c r="V21" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V21" s="1" t="n">
+      <c r="W21" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W21" s="1" t="n">
+      <c r="X21" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X21" s="1" t="n">
+      <c r="Y21" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y21" s="1" t="n">
+      <c r="Z21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>0.58</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="K22" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="L22" s="1" t="n">
         <v>1.6</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="M22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O22" s="1" t="n">
+      <c r="P22" s="1" t="n">
         <v>25.06</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q22" s="1" t="n">
+      <c r="R22" s="1" t="n">
         <v>36.02</v>
       </c>
-      <c r="R22" s="1" t="n">
+      <c r="S22" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S22" s="1" t="n">
+      <c r="T22" s="1" t="n">
         <v>21.93</v>
       </c>
-      <c r="T22" s="1" t="n">
+      <c r="U22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U22" s="1" t="n">
+      <c r="V22" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V22" s="1" t="n">
+      <c r="W22" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W22" s="1" t="n">
+      <c r="X22" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X22" s="1" t="n">
+      <c r="Y22" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y22" s="1" t="n">
+      <c r="Z22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="K23" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="L23" s="1" t="n">
         <v>1.6</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="M23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O23" s="1" t="n">
+      <c r="P23" s="1" t="n">
         <v>25.06</v>
       </c>
-      <c r="P23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q23" s="1" t="n">
+      <c r="R23" s="1" t="n">
         <v>36.02</v>
       </c>
-      <c r="R23" s="1" t="n">
+      <c r="S23" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S23" s="1" t="n">
+      <c r="T23" s="1" t="n">
         <v>21.93</v>
       </c>
-      <c r="T23" s="1" t="n">
+      <c r="U23" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U23" s="1" t="n">
+      <c r="V23" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V23" s="1" t="n">
+      <c r="W23" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W23" s="1" t="n">
+      <c r="X23" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X23" s="1" t="n">
+      <c r="Y23" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y23" s="1" t="n">
+      <c r="Z23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>0.51</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="K24" s="1" t="n">
         <v>5.7</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="L24" s="1" t="n">
         <v>3.2</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>4</v>
       </c>
       <c r="M24" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O24" s="1" t="n">
+      <c r="P24" s="1" t="n">
         <v>43.07</v>
       </c>
-      <c r="P24" s="1" t="n">
+      <c r="Q24" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q24" s="1" t="n">
+      <c r="R24" s="1" t="n">
         <v>61.86</v>
       </c>
-      <c r="R24" s="1" t="n">
+      <c r="S24" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S24" s="1" t="n">
+      <c r="T24" s="1" t="n">
         <v>27.41</v>
       </c>
-      <c r="T24" s="1" t="n">
+      <c r="U24" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U24" s="1" t="n">
+      <c r="V24" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V24" s="1" t="n">
+      <c r="W24" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W24" s="1" t="n">
+      <c r="X24" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X24" s="1" t="n">
+      <c r="Y24" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y24" s="1" t="n">
+      <c r="Z24" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="K25" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="L25" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="L25" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="P25" s="1" t="n">
         <v>52.47</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="Q25" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="R25" s="1" t="n">
         <v>52.47</v>
       </c>
-      <c r="R25" s="1" t="n">
+      <c r="S25" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="S25" s="1" t="n">
+      <c r="T25" s="1" t="n">
         <v>30.54</v>
       </c>
-      <c r="T25" s="1" t="n">
+      <c r="U25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U25" s="1" t="n">
+      <c r="V25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="V25" s="1" t="n">
+      <c r="W25" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W25" s="1" t="n">
-        <v>0.08</v>
       </c>
       <c r="X25" s="1" t="n">
         <v>0.08</v>
       </c>
       <c r="Y25" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>0.42</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="K26" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="L26" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="L26" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="O26" s="1" t="n">
+      <c r="P26" s="1" t="n">
         <v>20.36</v>
       </c>
-      <c r="P26" s="1" t="n">
+      <c r="Q26" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="Q26" s="1" t="n">
+      <c r="R26" s="1" t="n">
         <v>24.28</v>
       </c>
-      <c r="R26" s="1" t="n">
+      <c r="S26" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="S26" s="1" t="n">
+      <c r="T26" s="1" t="n">
         <v>17.23</v>
       </c>
-      <c r="T26" s="1" t="n">
+      <c r="U26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U26" s="1" t="n">
+      <c r="V26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="W26" s="1" t="n">
         <v>0.4</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <v>0.12</v>
       </c>
       <c r="X26" s="1" t="n">
         <v>0.12</v>
       </c>
       <c r="Y26" s="1" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="K27" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="L27" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="L27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="O27" s="1" t="n">
+      <c r="P27" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="P27" s="1" t="n">
+      <c r="Q27" s="1" t="n">
         <v>0.07</v>
       </c>
-      <c r="Q27" s="1" t="n">
+      <c r="R27" s="1" t="n">
         <v>38.4</v>
       </c>
-      <c r="R27" s="1" t="n">
+      <c r="S27" s="1" t="n">
         <v>0.06</v>
       </c>
-      <c r="S27" s="1" t="n">
+      <c r="T27" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="T27" s="1" t="n">
+      <c r="U27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U27" s="1" t="n">
+      <c r="V27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="V27" s="1" t="n">
+      <c r="W27" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <v>0.08</v>
       </c>
       <c r="X27" s="1" t="n">
         <v>0.08</v>
       </c>
       <c r="Y27" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="K28" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="L28" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M28" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O28" s="1" t="n">
+      <c r="P28" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="P28" s="1" t="n">
+      <c r="Q28" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q28" s="1" t="n">
+      <c r="R28" s="1" t="n">
         <v>93.97</v>
       </c>
-      <c r="R28" s="1" t="n">
+      <c r="S28" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S28" s="1" t="n">
+      <c r="T28" s="1" t="n">
         <v>49.33</v>
       </c>
-      <c r="T28" s="1" t="n">
+      <c r="U28" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U28" s="1" t="n">
+      <c r="V28" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V28" s="1" t="n">
+      <c r="W28" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <v>0.08</v>
       </c>
       <c r="X28" s="1" t="n">
         <v>0.08</v>
       </c>
       <c r="Y28" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="K29" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="L29" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M29" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O29" s="1" t="n">
+      <c r="P29" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="Q29" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q29" s="1" t="n">
+      <c r="R29" s="1" t="n">
         <v>81.44</v>
       </c>
-      <c r="R29" s="1" t="n">
+      <c r="S29" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S29" s="1" t="n">
+      <c r="T29" s="1" t="n">
         <v>42.29</v>
       </c>
-      <c r="T29" s="1" t="n">
+      <c r="U29" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U29" s="1" t="n">
+      <c r="V29" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V29" s="1" t="n">
+      <c r="W29" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W29" s="1" t="n">
-        <v>0.08</v>
       </c>
       <c r="X29" s="1" t="n">
         <v>0.08</v>
       </c>
       <c r="Y29" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <v>0.29</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="K30" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="L30" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>11</v>
       </c>
       <c r="M30" s="1" t="n">
         <v>11</v>
       </c>
       <c r="N30" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O30" s="1" t="n">
+      <c r="P30" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="P30" s="1" t="n">
+      <c r="Q30" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q30" s="1" t="n">
+      <c r="R30" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="R30" s="1" t="n">
+      <c r="S30" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S30" s="1" t="n">
+      <c r="T30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="T30" s="1" t="n">
+      <c r="U30" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U30" s="1" t="n">
+      <c r="V30" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V30" s="1" t="n">
+      <c r="W30" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <v>0.08</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>0.08</v>
       </c>
       <c r="Y30" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>0.39</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="K31" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="L31" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>8</v>
       </c>
       <c r="M31" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N31" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="P31" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="Q31" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q31" s="1" t="n">
+      <c r="R31" s="1" t="n">
         <v>57.17</v>
       </c>
-      <c r="R31" s="1" t="n">
+      <c r="S31" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S31" s="1" t="n">
-        <v>31</v>
-      </c>
       <c r="T31" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="U31" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U31" s="1" t="n">
+      <c r="V31" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V31" s="1" t="n">
+      <c r="W31" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>0.08</v>
       </c>
       <c r="X31" s="1" t="n">
         <v>0.08</v>
       </c>
       <c r="Y31" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>0.39</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="K32" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="L32" s="1" t="n">
         <v>3.3</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>8</v>
       </c>
       <c r="M32" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N32" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="O32" s="1" t="n">
+      <c r="P32" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="P32" s="1" t="n">
+      <c r="Q32" s="1" t="n">
         <v>5.83</v>
       </c>
-      <c r="Q32" s="1" t="n">
+      <c r="R32" s="1" t="n">
         <v>57.17</v>
       </c>
-      <c r="R32" s="1" t="n">
+      <c r="S32" s="1" t="n">
         <v>2.92</v>
       </c>
-      <c r="S32" s="1" t="n">
-        <v>31</v>
-      </c>
       <c r="T32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="U32" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U32" s="1" t="n">
+      <c r="V32" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="V32" s="1" t="n">
+      <c r="W32" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W32" s="1" t="n">
-        <v>0.08</v>
       </c>
       <c r="X32" s="1" t="n">
         <v>0.08</v>
       </c>
       <c r="Y32" s="1" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="K33" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="L33" s="1" t="n">
         <v>1.6</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="M33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="O33" s="1" t="n">
+      <c r="P33" s="1" t="n">
         <v>25.06</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="Q33" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="Q33" s="1" t="n">
+      <c r="R33" s="1" t="n">
         <v>36.02</v>
       </c>
-      <c r="R33" s="1" t="n">
+      <c r="S33" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="S33" s="1" t="n">
+      <c r="T33" s="1" t="n">
         <v>21.93</v>
       </c>
-      <c r="T33" s="1" t="n">
+      <c r="U33" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="U33" s="1" t="n">
+      <c r="V33" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="V33" s="1" t="n">
+      <c r="W33" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="W33" s="1" t="n">
+      <c r="X33" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="X33" s="1" t="n">
+      <c r="Y33" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Z33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="K34" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="L34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="O34" s="1" t="n">
+      <c r="P34" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="Q34" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q34" s="1" t="n">
+      <c r="R34" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R34" s="1" t="n">
+      <c r="S34" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="S34" s="1" t="n">
+      <c r="T34" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="T34" s="1" t="n">
+      <c r="U34" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U34" s="1" t="n">
+      <c r="V34" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V34" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="W34" s="1" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y34" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="K35" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="L35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L35" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="O35" s="1" t="n">
+      <c r="P35" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="P35" s="1" t="n">
+      <c r="Q35" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q35" s="1" t="n">
+      <c r="R35" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R35" s="1" t="n">
+      <c r="S35" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="S35" s="1" t="n">
+      <c r="T35" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="T35" s="1" t="n">
+      <c r="U35" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U35" s="1" t="n">
+      <c r="V35" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" s="1" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y35" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="K36" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="L36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L36" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="M36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="O36" s="1" t="n">
+      <c r="P36" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="P36" s="1" t="n">
+      <c r="Q36" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q36" s="1" t="n">
+      <c r="R36" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="R36" s="1" t="n">
+      <c r="S36" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="S36" s="1" t="n">
+      <c r="T36" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="U36" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U36" s="1" t="n">
+      <c r="V36" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V36" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="W36" s="1" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y36" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1" t="n">
         <v>0.89</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="K37" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="L37" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="O37" s="1" t="n">
+      <c r="P37" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="P37" s="1" t="n">
+      <c r="Q37" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q37" s="1" t="n">
+      <c r="R37" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="R37" s="1" t="n">
+      <c r="S37" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="S37" s="1" t="n">
+      <c r="T37" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="U37" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U37" s="1" t="n">
+      <c r="V37" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V37" s="1" t="n">
+      <c r="W37" s="1" t="n">
         <v>0.4</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0.05</v>
       </c>
       <c r="X37" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="1" t="n">
+      <c r="J38" s="1" t="n">
         <v>0.89</v>
       </c>
-      <c r="J38" s="1" t="n">
+      <c r="K38" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="L38" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M38" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="O38" s="1" t="n">
+      <c r="P38" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="P38" s="1" t="n">
+      <c r="Q38" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="R38" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="R38" s="1" t="n">
+      <c r="S38" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="S38" s="1" t="n">
+      <c r="T38" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="U38" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U38" s="1" t="n">
+      <c r="V38" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V38" s="1" t="n">
+      <c r="W38" s="1" t="n">
         <v>0.4</v>
-      </c>
-      <c r="W38" s="1" t="n">
-        <v>0.05</v>
       </c>
       <c r="X38" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="1" t="n">
         <v>0.89</v>
       </c>
-      <c r="J39" s="1" t="n">
+      <c r="K39" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="L39" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M39" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="O39" s="1" t="n">
+      <c r="P39" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="P39" s="1" t="n">
+      <c r="Q39" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q39" s="1" t="n">
+      <c r="R39" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="R39" s="1" t="n">
+      <c r="S39" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="S39" s="1" t="n">
+      <c r="T39" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="T39" s="1" t="n">
+      <c r="U39" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U39" s="1" t="n">
+      <c r="V39" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V39" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" s="1" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="1" t="n">
         <v>0.89</v>
       </c>
-      <c r="J40" s="1" t="n">
+      <c r="K40" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="L40" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="M40" s="1" t="n">
         <v>3</v>
       </c>
       <c r="N40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="O40" s="1" t="n">
+      <c r="P40" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="P40" s="1" t="n">
+      <c r="Q40" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q40" s="1" t="n">
+      <c r="R40" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="R40" s="1" t="n">
+      <c r="S40" s="1" t="n">
         <v>1.94</v>
       </c>
-      <c r="S40" s="1" t="n">
+      <c r="T40" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="T40" s="1" t="n">
+      <c r="U40" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="U40" s="1" t="n">
+      <c r="V40" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="V40" s="1" t="n">
+      <c r="W40" s="1" t="n">
         <v>0.5</v>
-      </c>
-      <c r="W40" s="1" t="n">
-        <v>0.05</v>
       </c>
       <c r="X40" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" s="5"/>
       <c r="J41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" s="1" t="n">
         <v>0</v>
       </c>
@@ -3406,42 +3656,45 @@
       <c r="U41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V41" s="5" t="n">
+      <c r="V41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y41" s="1" t="n">
+      <c r="Y41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" s="5"/>
       <c r="J42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L42" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M42" s="1" t="n">
         <v>0</v>
       </c>
@@ -3469,37 +3722,40 @@
       <c r="U42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V42" s="5" t="n">
+      <c r="V42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W42" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y42" s="1" t="n">
+      <c r="Y42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" s="5"/>
       <c r="J43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L43" s="1" t="n">
@@ -3532,39 +3788,42 @@
       <c r="U43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V43" s="5" t="n">
+      <c r="V43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W43" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y43" s="1" t="n">
+      <c r="Y43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" s="5"/>
       <c r="J44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L44" s="1" t="n">
@@ -3597,41 +3856,44 @@
       <c r="U44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V44" s="5" t="n">
+      <c r="V44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W44" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y44" s="1" t="n">
+      <c r="Y44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="5" t="n">
-        <v>1</v>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="1" t="n">
@@ -3664,39 +3926,42 @@
       <c r="U45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V45" s="5" t="n">
+      <c r="V45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W45" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y45" s="1" t="n">
+      <c r="Y45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" s="5"/>
       <c r="J46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="1" t="n">
@@ -3729,38 +3994,41 @@
       <c r="U46" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V46" s="5" t="n">
+      <c r="V46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W46" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y46" s="1" t="n">
+      <c r="Y46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I47" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J47" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="J47" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L47" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M47" s="1" t="n">
         <v>0</v>
       </c>
@@ -3788,38 +4056,41 @@
       <c r="U47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V47" s="5" t="n">
+      <c r="V47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W47" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y47" s="1" t="n">
+      <c r="Y47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="1" t="n">
         <v>0.98</v>
       </c>
-      <c r="J48" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L48" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M48" s="1" t="n">
         <v>0</v>
       </c>
@@ -3847,36 +4118,39 @@
       <c r="U48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V48" s="5" t="n">
+      <c r="V48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W48" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y48" s="1" t="n">
+      <c r="Y48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="5" t="n">
+        <v>110</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="J49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="n">
+      <c r="K49" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="1" t="n">
@@ -3909,39 +4183,42 @@
       <c r="U49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V49" s="5" t="n">
+      <c r="V49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W49" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="1" t="n">
+      <c r="Y49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I50" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="J50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1" t="n">
+      <c r="K50" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L50" s="1" t="n">
@@ -3974,36 +4251,39 @@
       <c r="U50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V50" s="5" t="n">
+      <c r="V50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W50" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y50" s="1" t="n">
+      <c r="Y50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I51" s="5" t="n">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="1" t="n">
@@ -4036,36 +4316,39 @@
       <c r="U51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V51" s="5" t="n">
+      <c r="V51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W51" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y51" s="1" t="n">
+      <c r="Y51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I52" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="J52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1" t="n">
+      <c r="K52" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="1" t="n">
@@ -4098,41 +4381,44 @@
       <c r="U52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V52" s="5" t="n">
+      <c r="V52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W52" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y52" s="1" t="n">
+      <c r="Y52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I53" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" s="1" t="n">
         <v>0.75</v>
       </c>
-      <c r="J53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L53" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M53" s="1" t="n">
         <v>0</v>
       </c>
@@ -4160,41 +4446,44 @@
       <c r="U53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V53" s="5" t="n">
+      <c r="V53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W53" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" s="1" t="n">
+      <c r="Y53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I54" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="J54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1" t="n">
+      <c r="K54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L54" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M54" s="1" t="n">
         <v>0</v>
       </c>
@@ -4222,41 +4511,44 @@
       <c r="U54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V54" s="5" t="n">
+      <c r="V54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W54" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y54" s="1" t="n">
+      <c r="Y54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I55" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="1" t="n">
         <v>0.35</v>
       </c>
-      <c r="J55" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L55" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M55" s="1" t="n">
         <v>0</v>
       </c>
@@ -4264,62 +4556,65 @@
         <v>0</v>
       </c>
       <c r="O55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="P55" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Q55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="R55" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="S55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1" t="n">
         <v>15</v>
-      </c>
-      <c r="T55" s="1" t="n">
-        <v>12</v>
       </c>
       <c r="U55" s="1" t="n">
         <v>12</v>
       </c>
       <c r="V55" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="W55" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W55" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="X55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I56" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J56" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="J56" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="L56" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M56" s="1" t="n">
         <v>0</v>
       </c>
@@ -4327,64 +4622,67 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="P56" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Q56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="R56" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="S56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1" t="n">
         <v>15</v>
-      </c>
-      <c r="T56" s="1" t="n">
-        <v>12</v>
       </c>
       <c r="U56" s="1" t="n">
         <v>12</v>
       </c>
       <c r="V56" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="W56" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W56" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="X56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I57" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="J57" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="L57" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M57" s="1" t="n">
         <v>0</v>
       </c>
@@ -4392,64 +4690,67 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="P57" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Q57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="R57" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="S57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1" t="n">
         <v>15</v>
-      </c>
-      <c r="T57" s="1" t="n">
-        <v>12</v>
       </c>
       <c r="U57" s="1" t="n">
         <v>12</v>
       </c>
       <c r="V57" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="W57" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="W57" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="X57" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="5" t="n">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L58" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M58" s="1" t="n">
         <v>0</v>
       </c>
@@ -4477,41 +4778,44 @@
       <c r="U58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V58" s="5" t="n">
+      <c r="V58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W58" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y58" s="1" t="n">
+      <c r="Y58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" s="5" t="n">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="L59" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M59" s="1" t="n">
         <v>0</v>
       </c>
@@ -4539,46 +4843,49 @@
       <c r="U59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V59" s="5" t="n">
+      <c r="V59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W59" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y59" s="1" t="n">
+      <c r="Y59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="1" t="n">
         <v>0</v>
@@ -4611,43 +4918,46 @@
         <v>0</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="5" t="n">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="n">
         <v>-20</v>
       </c>
-      <c r="L61" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M61" s="1" t="n">
         <v>0</v>
       </c>
@@ -4675,44 +4985,47 @@
       <c r="U61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V61" s="5" t="n">
+      <c r="V61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W61" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y61" s="1" t="n">
+      <c r="Y61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I62" s="5" t="n">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="n">
         <v>-10</v>
       </c>
-      <c r="L62" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M62" s="1" t="n">
         <v>0</v>
       </c>
@@ -4740,39 +5053,42 @@
       <c r="U62" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V62" s="5" t="n">
+      <c r="V62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W62" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y62" s="1" t="n">
+      <c r="Y62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="5" t="n">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L63" s="1" t="n">
@@ -4805,45 +5121,48 @@
       <c r="U63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V63" s="5" t="n">
+      <c r="V63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W63" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="1" t="n">
+      <c r="Y63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="5"/>
       <c r="J64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="L64" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M64" s="1" t="n">
         <v>0</v>
       </c>
@@ -4871,42 +5190,45 @@
       <c r="U64" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V64" s="5" t="n">
+      <c r="V64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W64" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="1" t="n">
+      <c r="Y64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I65" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="J65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="1" t="n">
@@ -4939,45 +5261,48 @@
       <c r="U65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V65" s="5" t="n">
+      <c r="V65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W65" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y65" s="1" t="n">
+      <c r="Y65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>97</v>
+        <v>135</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I66" s="5" t="n">
-        <v>1</v>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="1" t="n">
         <v>0</v>
@@ -5006,46 +5331,49 @@
       <c r="U66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V66" s="5" t="n">
+      <c r="V66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W66" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y66" s="1" t="n">
+      <c r="Y66" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>97</v>
+        <v>136</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I67" s="5" t="n">
-        <v>1</v>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L67" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M67" s="1" t="n">
         <v>0</v>
       </c>
@@ -5073,46 +5401,49 @@
       <c r="U67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V67" s="5" t="n">
+      <c r="V67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W67" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y67" s="1" t="n">
+      <c r="Y67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>97</v>
+        <v>137</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I68" s="5" t="n">
-        <v>1</v>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L68" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M68" s="1" t="n">
         <v>0</v>
       </c>
@@ -5140,41 +5471,44 @@
       <c r="U68" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V68" s="5" t="n">
+      <c r="V68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W68" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y68" s="1" t="n">
+      <c r="Y68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I69" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J69" s="1" t="n">
         <v>0.71</v>
       </c>
-      <c r="J69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1" t="n">
+      <c r="K69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L69" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M69" s="1" t="n">
         <v>0</v>
       </c>
@@ -5202,41 +5536,44 @@
       <c r="U69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V69" s="5" t="n">
+      <c r="V69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W69" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y69" s="1" t="n">
+      <c r="Y69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I70" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J70" s="1" t="n">
         <v>0.75</v>
       </c>
-      <c r="J70" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1" t="n">
+      <c r="K70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L70" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M70" s="1" t="n">
         <v>0</v>
       </c>
@@ -5264,41 +5601,44 @@
       <c r="U70" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V70" s="5" t="n">
+      <c r="V70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W70" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y70" s="1" t="n">
+      <c r="Y70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I71" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J71" s="1" t="n">
         <v>0.79</v>
       </c>
-      <c r="J71" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1" t="n">
+      <c r="K71" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="L71" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="M71" s="1" t="n">
         <v>0</v>
       </c>
@@ -5326,36 +5666,39 @@
       <c r="U71" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V71" s="5" t="n">
+      <c r="V71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W71" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y71" s="1" t="n">
+      <c r="Y71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I72" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J72" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="J72" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" s="1" t="n">
+      <c r="K72" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L72" s="1" t="n">
@@ -5388,37 +5731,40 @@
       <c r="U72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V72" s="5" t="n">
+      <c r="V72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W72" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="1"/>
+      <c r="Y72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I73" s="5" t="n">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="J73" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="1" t="n">
@@ -5451,20 +5797,156 @@
       <c r="U73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="V73" s="5" t="n">
+      <c r="V73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W73" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X73" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="1" t="n">
-        <v>1</v>
+      <c r="Y73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" s="5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J75" s="5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5490,7 +5972,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.34"/>
@@ -5501,27 +5983,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
@@ -5529,10 +6011,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
@@ -5540,10 +6022,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -5551,10 +6033,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -5562,10 +6044,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.7</v>
@@ -5573,10 +6055,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.15</v>
@@ -5584,10 +6066,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.15</v>
@@ -5595,10 +6077,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.3</v>
@@ -5606,10 +6088,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.4</v>
@@ -5617,10 +6099,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.3</v>

--- a/input/maf2020techdata.xlsx
+++ b/input/maf2020techdata.xlsx
@@ -147,7 +147,7 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">biddingzone</t>
+    <t xml:space="preserve">node</t>
   </si>
   <si>
     <t xml:space="preserve">fuel</t>
@@ -866,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5880,7 +5880,7 @@
       <c r="Z74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB74" s="0" t="n">
+      <c r="AB74" s="1" t="n">
         <v>20</v>
       </c>
     </row>

--- a/input/maf2020techdata.xlsx
+++ b/input/maf2020techdata.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="159">
   <si>
     <t xml:space="preserve">Fuel</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t xml:space="preserve">DR cutoff tier 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR cutoff tier 3</t>
   </si>
   <si>
     <t xml:space="preserve">Hydrogen processor</t>
@@ -864,10 +867,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC75"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E72" activeCellId="0" sqref="E72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4860,6 +4863,9 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>126</v>
       </c>
@@ -4867,96 +4873,87 @@
         <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z60" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="M61" s="1" t="n">
         <v>0</v>
@@ -4988,22 +4985,25 @@
       <c r="V61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="5" t="n">
+      <c r="W61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>31</v>
@@ -5015,7 +5015,7 @@
         <v>32</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>1</v>
@@ -5024,125 +5024,122 @@
         <v>0</v>
       </c>
       <c r="L62" s="1" t="n">
+        <v>-20</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="n">
         <v>-10</v>
       </c>
-      <c r="M62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z62" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="M63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>31</v>
@@ -5151,9 +5148,11 @@
         <v>110</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I64" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J64" s="5" t="n">
         <v>1</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M64" s="1" t="n">
         <v>0</v>
@@ -5216,15 +5215,13 @@
       <c r="D65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="E65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="5"/>
       <c r="J65" s="5" t="n">
         <v>1</v>
       </c>
@@ -5232,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M65" s="1" t="n">
         <v>0</v>
@@ -5275,6 +5272,9 @@
       </c>
       <c r="Z65" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="AB65" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,10 +5290,8 @@
       <c r="F66" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5" t="s">
-        <v>103</v>
+      <c r="H66" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>1</v>
@@ -5302,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="1" t="n">
         <v>0</v>
@@ -5348,7 +5346,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5372,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M67" s="1" t="n">
         <v>0</v>
@@ -5442,72 +5440,77 @@
         <v>0</v>
       </c>
       <c r="L68" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="n">
         <v>20</v>
-      </c>
-      <c r="M68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z68" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J69" s="1" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1" t="n">
-        <v>9</v>
       </c>
       <c r="M69" s="1" t="n">
         <v>0</v>
@@ -5566,7 +5569,7 @@
         <v>117</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>0</v>
@@ -5631,7 +5634,7 @@
         <v>117</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="K71" s="5" t="n">
         <v>0</v>
@@ -5683,26 +5686,26 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J72" s="5" t="n">
-        <v>0.95</v>
+      <c r="E72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>0.79</v>
       </c>
       <c r="K72" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M72" s="1" t="n">
         <v>0</v>
@@ -5746,23 +5749,22 @@
       <c r="Z72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="J73" s="5" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K73" s="5" t="n">
         <v>0</v>
@@ -5812,31 +5814,29 @@
       <c r="Z73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AC73" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="J74" s="5" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K74" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="1" t="n">
         <v>0</v>
@@ -5880,22 +5880,22 @@
       <c r="Z74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AB74" s="1" t="n">
-        <v>20</v>
+      <c r="AC74" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>0.99</v>
@@ -5946,6 +5946,74 @@
         <v>1</v>
       </c>
       <c r="Z75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J76" s="5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5983,24 +6051,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>109</v>
@@ -6011,7 +6079,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>112</v>
@@ -6022,7 +6090,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>113</v>
@@ -6033,7 +6101,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>115</v>
@@ -6044,10 +6112,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.7</v>
@@ -6055,10 +6123,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.15</v>
@@ -6066,10 +6134,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.15</v>
@@ -6077,10 +6145,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.3</v>
@@ -6088,10 +6156,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.4</v>
@@ -6099,10 +6167,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.3</v>
